--- a/workplace.xlsx
+++ b/workplace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulyss\OneDrive\Área de Trabalho\Curso Pós Graduação em Analise de Dados\PythonEstatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA23904-EA52-4A7B-90D3-E9B946989689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DF87F-CFFD-49E1-A6EE-9004B6EBB381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{748FDA57-4FAD-41BF-88CE-4EC82A7CFF50}"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="10200" windowHeight="10920" xr2:uid="{748FDA57-4FAD-41BF-88CE-4EC82A7CFF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE694223-3285-43A9-AE5A-0B82D944C66A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:E24"/>
@@ -535,7 +535,7 @@
         <v>1.2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E24" si="0">C3*D3</f>
         <v>27.599999999999998</v>
       </c>
     </row>
@@ -898,6 +898,10 @@
         <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/workplace.xlsx
+++ b/workplace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulyss\OneDrive\Área de Trabalho\Curso Pós Graduação em Analise de Dados\PythonEstatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DF87F-CFFD-49E1-A6EE-9004B6EBB381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B97550-4E84-4BA6-90B0-45F75B7D6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="0" windowWidth="10200" windowHeight="10920" xr2:uid="{748FDA57-4FAD-41BF-88CE-4EC82A7CFF50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{748FDA57-4FAD-41BF-88CE-4EC82A7CFF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Cod</t>
   </si>
   <si>
-    <t>V.Venda</t>
-  </si>
-  <si>
     <t>Lápis</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Molha dedo</t>
+  </si>
+  <si>
+    <t>V_Venda</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E24"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>57</v>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -535,7 +535,7 @@
         <v>1.2</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E24" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E23" si="0">C3*D3</f>
         <v>27.599999999999998</v>
       </c>
     </row>
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>67</v>
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>45</v>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -634,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>45</v>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>45</v>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -760,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -796,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -814,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>45</v>
@@ -832,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>54</v>
@@ -868,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>23</v>
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>22</v>
